--- a/AvalancheTester/AvalancheTester.Application/DailyTestReports.xlsx
+++ b/AvalancheTester/AvalancheTester.Application/DailyTestReports.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
